--- a/project_het/datas/cases_data.xlsx
+++ b/project_het/datas/cases_data.xlsx
@@ -465,7 +465,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
+      <selection activeCell="E7" pane="bottomLeft" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1222,15 +1222,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1239,9 +1239,9 @@
     <col bestFit="1" customWidth="1" max="2" min="2" width="13.88671875"/>
     <col bestFit="1" customWidth="1" max="3" min="3" width="19.77734375"/>
     <col customWidth="1" max="4" min="4" width="15.44140625"/>
-    <col customWidth="1" max="5" min="5" width="17.88671875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="8.77734375"/>
     <col bestFit="1" customWidth="1" max="6" min="6" width="30.109375"/>
-    <col customWidth="1" max="7" min="7" width="45.6640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="73"/>
     <col customWidth="1" max="8" min="8" width="11.109375"/>
     <col bestFit="1" customWidth="1" max="9" min="9" width="9.5546875"/>
   </cols>
@@ -1293,33 +1293,38 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row customHeight="1" ht="37.8" r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>获取用户信息</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>登录用户信息</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>品牌介绍</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>品牌介绍接口</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>/v1/user/get</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>{"accessToken":"#accessToken#", "appId":#appId#,"sign":#sign#,"timestamp":#timestamp#}</t>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>/v4/app/exhibitionhall/beautyBrand/get</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{"accessToken":"#accessToken#", "appId":#appId#,"timestamp":int(time.time()*1000)}</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -1327,34 +1332,40 @@
           <t>{"code":0}</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="37.8" r="3">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>品牌介绍</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>品牌介绍接口</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>顾客管理密码验证</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>顾客管理密码验证</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>/v4/app/exhibitionhall/beautyBrand/get</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{"accessToken":"#accessToken#", "appId":#appId#,"timestamp":#timestamp#}</t>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>/v4/app/exhibitionhall/multi/tenant/verifyPwd</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>{"account":#account#,"accessToken":"#accessToken#","password":"#password_app#", "appId":#appId#,"timestamp":int(time.time()*1000)}</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
@@ -1362,11 +1373,50 @@
           <t>{"code":0}</t>
         </is>
       </c>
+      <c r="I3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="37.8" r="4">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>顾客列表</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>获取顾客列表</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>application/x-www-form-urlencoded</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>/v4/app/exhibitionhall/industryplatform/customer/getCustomerList</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>{"account":#account#,"accessToken":"#accessToken#", "appId":#appId#,"timestamp":int(time.time()*1000)}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>{"code":0}</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="n"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://api.clife.cn/v1/user/get" ref="F2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
